--- a/data/trans_orig/P44D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4032</v>
+        <v>4777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0626624488193654</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2652552176910102</v>
+        <v>0.3142664450541321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5034</v>
+        <v>5343</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06087468879945109</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3087031547802092</v>
+        <v>0.3276725337498795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5949</v>
+        <v>6893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0617371712473529</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1888007359045016</v>
+        <v>0.2187743721226983</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>14248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11169</v>
+        <v>10424</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>15201</v>
@@ -823,7 +823,7 @@
         <v>0.9373375511806346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7347447823089933</v>
+        <v>0.6857335549458662</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>15314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11273</v>
+        <v>10964</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>16307</v>
@@ -844,7 +844,7 @@
         <v>0.9391253112005489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.691296845219791</v>
+        <v>0.6723274662501252</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>29563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25559</v>
+        <v>24615</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>31508</v>
@@ -865,7 +865,7 @@
         <v>0.9382628287526471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.811199264095498</v>
+        <v>0.7812256278773017</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10704</v>
+        <v>10099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1223001597969697</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.375572624968885</v>
+        <v>0.3543238246207726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -981,19 +981,19 @@
         <v>4517</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10199</v>
+        <v>10367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1243148284907187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03147166616264067</v>
+        <v>0.03129195531945279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2806815988217295</v>
+        <v>0.2852816134737875</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1002,19 +1002,19 @@
         <v>8003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3432</v>
+        <v>3365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15983</v>
+        <v>16225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.123429245123977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05292851032117842</v>
+        <v>0.05190121971402412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2465099980621139</v>
+        <v>0.2502282937886514</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>25015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17797</v>
+        <v>18402</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>28501</v>
@@ -1040,7 +1040,7 @@
         <v>0.8776998402030303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6244273750311148</v>
+        <v>0.6456761753792268</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>31821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26139</v>
+        <v>25971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35194</v>
+        <v>35201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8756851715092813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7193184011782703</v>
+        <v>0.7147183865262126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9685283338373594</v>
+        <v>0.9687080446805472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -1073,19 +1073,19 @@
         <v>56836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48856</v>
+        <v>48614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61407</v>
+        <v>61474</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.876570754876023</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7534900019378861</v>
+        <v>0.7497717062113486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9470714896788216</v>
+        <v>0.9480987802859758</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7534</v>
+        <v>7605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07294885126017177</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2631984334656606</v>
+        <v>0.265674717728357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1198,19 +1198,19 @@
         <v>7122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2439</v>
+        <v>2913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13459</v>
+        <v>13638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2598549782106706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08899306975849873</v>
+        <v>0.106288166988427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4910962554024668</v>
+        <v>0.4976183129468101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1219,19 +1219,19 @@
         <v>9210</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4086</v>
+        <v>4098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16944</v>
+        <v>17139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1643700624537396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07291839655198726</v>
+        <v>0.07314768630834956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3024143250512585</v>
+        <v>0.3058883204333198</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>26536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21090</v>
+        <v>21019</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>28624</v>
@@ -1257,7 +1257,7 @@
         <v>0.9270511487398282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7368015665343435</v>
+        <v>0.7343252822716417</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>20284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13947</v>
+        <v>13768</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24967</v>
+        <v>24493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7401450217893295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5089037445975334</v>
+        <v>0.5023816870531911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9110069302415013</v>
+        <v>0.893711833011573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -1290,19 +1290,19 @@
         <v>46820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39086</v>
+        <v>38891</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51944</v>
+        <v>51932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8356299375462604</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6975856749487417</v>
+        <v>0.6941116795666803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9270816034480128</v>
+        <v>0.9268523136916504</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>8125</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3241</v>
+        <v>3203</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16109</v>
+        <v>15989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2012026920029959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08026232450281226</v>
+        <v>0.07932212557036009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3989266192099815</v>
+        <v>0.3959597352937484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1415,19 +1415,19 @@
         <v>6902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2420</v>
+        <v>2884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13366</v>
+        <v>13710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2383248655493203</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08355568459265834</v>
+        <v>0.09956606466125049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4615149022557169</v>
+        <v>0.473373859681528</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1436,19 +1436,19 @@
         <v>15027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8812</v>
+        <v>7652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25693</v>
+        <v>23994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2167074227274066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1270855179920438</v>
+        <v>0.1103515532655842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3705319695769829</v>
+        <v>0.3460289020787294</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>32255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24271</v>
+        <v>24391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37139</v>
+        <v>37177</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7987973079970041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6010733807900185</v>
+        <v>0.6040402647062517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9197376754971878</v>
+        <v>0.92067787442964</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1486,19 +1486,19 @@
         <v>22060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15596</v>
+        <v>15252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26542</v>
+        <v>26078</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7616751344506797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5384850977442831</v>
+        <v>0.5266261403184727</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9164443154073418</v>
+        <v>0.9004339353387495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -1507,19 +1507,19 @@
         <v>54315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43649</v>
+        <v>45348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60530</v>
+        <v>61690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7832925772725935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6294680304230169</v>
+        <v>0.6539710979212706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8729144820079563</v>
+        <v>0.8896484467344159</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>14651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1632,19 +1632,19 @@
         <v>19534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1791890841173321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1653,19 +1653,19 @@
         <v>34185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1541809393775411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>98055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -1703,19 +1703,19 @@
         <v>89479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79853</v>
+        <v>79114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>97077</v>
+        <v>97141</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.820810915882668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7325070586753162</v>
+        <v>0.7257262163443622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8905066113913769</v>
+        <v>0.8910944285710244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1724,19 +1724,19 @@
         <v>187534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174188</v>
+        <v>173729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199641</v>
+        <v>198262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8458190606224589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7856246701343778</v>
+        <v>0.7835549287806823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9004250975292143</v>
+        <v>0.8942050310964214</v>
       </c>
     </row>
     <row r="18">
@@ -2237,19 +2237,19 @@
         <v>6135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2200</v>
+        <v>2224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11358</v>
+        <v>12384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1584799881965263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05683735429888732</v>
+        <v>0.05745891239140358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.293409405530496</v>
+        <v>0.3199137537705781</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2258,19 +2258,19 @@
         <v>4758</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1282</v>
+        <v>1208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10628</v>
+        <v>10357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1569937536502285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04229315687894476</v>
+        <v>0.03986762024397108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3506307716024391</v>
+        <v>0.3416904698972133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2279,19 +2279,19 @@
         <v>10893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5542</v>
+        <v>5462</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18736</v>
+        <v>18415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1578273110382739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08029170209228152</v>
+        <v>0.07913752906780179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.271458161590523</v>
+        <v>0.266809851225392</v>
       </c>
     </row>
     <row r="8">
@@ -2308,19 +2308,19 @@
         <v>32575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27352</v>
+        <v>26326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36510</v>
+        <v>36486</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8415200118034737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7065905944695036</v>
+        <v>0.6800862462294214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9431626457011127</v>
+        <v>0.9425410876085965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -2329,19 +2329,19 @@
         <v>25552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19682</v>
+        <v>19953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29028</v>
+        <v>29102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8430062463497715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6493692283975605</v>
+        <v>0.6583095301027868</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9577068431210549</v>
+        <v>0.9601323797560286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -2350,19 +2350,19 @@
         <v>58127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50284</v>
+        <v>50605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63478</v>
+        <v>63558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.842172688961726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7285418384094768</v>
+        <v>0.7331901487746085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.919708297907717</v>
+        <v>0.9208624709321983</v>
       </c>
     </row>
     <row r="9">
@@ -2454,19 +2454,19 @@
         <v>3363</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8881</v>
+        <v>8138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1067345585207136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03362770170790935</v>
+        <v>0.03408350541321053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2818594943876689</v>
+        <v>0.2582720424233146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2475,19 +2475,19 @@
         <v>3144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7592</v>
+        <v>7679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1638566839161279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05216937075376241</v>
+        <v>0.0519146432637723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3957068958704423</v>
+        <v>0.4002457394997699</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2496,19 +2496,19 @@
         <v>6507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3127</v>
+        <v>2238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12352</v>
+        <v>13121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1283533542337322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06167414130191273</v>
+        <v>0.04414326415791033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2436441562610352</v>
+        <v>0.258825475487652</v>
       </c>
     </row>
     <row r="11">
@@ -2525,19 +2525,19 @@
         <v>28146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22628</v>
+        <v>23371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30449</v>
+        <v>30435</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8932654414792864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7181405056123298</v>
+        <v>0.7417279575766857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9663722982920906</v>
+        <v>0.9659164945867895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -2546,19 +2546,19 @@
         <v>16042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11594</v>
+        <v>11507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18185</v>
+        <v>18190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8361433160838722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6042931041295577</v>
+        <v>0.5997542605002298</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9478306292462375</v>
+        <v>0.9480853567362277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -2567,19 +2567,19 @@
         <v>44188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38343</v>
+        <v>37574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47568</v>
+        <v>48457</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8716466457662678</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7563558437389645</v>
+        <v>0.7411745245123473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9383258586980873</v>
+        <v>0.9558567358420895</v>
       </c>
     </row>
     <row r="12">
@@ -2671,19 +2671,19 @@
         <v>13414</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8171</v>
+        <v>7914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21100</v>
+        <v>20858</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2335496523725844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1422598946418509</v>
+        <v>0.1377894371616235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3673666910002506</v>
+        <v>0.3631560899513532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2692,19 +2692,19 @@
         <v>4502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10147</v>
+        <v>9940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1302673520257309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03228634034637329</v>
+        <v>0.03224992188398609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2936263848338531</v>
+        <v>0.2876248920966124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2713,19 +2713,19 @@
         <v>17916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11109</v>
+        <v>10834</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26852</v>
+        <v>26510</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1947505768031849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1207566149965043</v>
+        <v>0.1177621390558527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2918878106245204</v>
+        <v>0.2881662062686012</v>
       </c>
     </row>
     <row r="14">
@@ -2742,19 +2742,19 @@
         <v>44022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36336</v>
+        <v>36578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49265</v>
+        <v>49522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7664503476274156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.63263330899975</v>
+        <v>0.6368439100486465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8577401053581493</v>
+        <v>0.8622105628383762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -2763,19 +2763,19 @@
         <v>30057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24412</v>
+        <v>24619</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33443</v>
+        <v>33444</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8697326479742691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7063736151661464</v>
+        <v>0.7123751079033876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9677136596536267</v>
+        <v>0.9677500781160139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -2784,19 +2784,19 @@
         <v>74079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>65143</v>
+        <v>65485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80886</v>
+        <v>81161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8052494231968151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7081121893754795</v>
+        <v>0.7118337937313989</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8792433850034954</v>
+        <v>0.8822378609441472</v>
       </c>
     </row>
     <row r="15">
@@ -2888,19 +2888,19 @@
         <v>22912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.145419255586537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2909,19 +2909,19 @@
         <v>12404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140044804643591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -2930,19 +2930,19 @@
         <v>35316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1325868921126236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
     </row>
     <row r="17">
@@ -2959,19 +2959,19 @@
         <v>134646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124262</v>
+        <v>125749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>142300</v>
+        <v>142707</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.854580744413463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.788675108865429</v>
+        <v>0.7981125839282561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9031582764962874</v>
+        <v>0.9057419497545303</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -2980,19 +2980,19 @@
         <v>96400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87686</v>
+        <v>87784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>102143</v>
+        <v>102453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8859955195356408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8059071065256413</v>
+        <v>0.8068049472128216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387825424834202</v>
+        <v>0.9416320048046682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -3001,19 +3001,19 @@
         <v>231046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218000</v>
+        <v>218546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240693</v>
+        <v>241665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8674131078873764</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8184341944267498</v>
+        <v>0.8204850099590225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9036328774882149</v>
+        <v>0.9072817510453728</v>
       </c>
     </row>
     <row r="18">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6352</v>
+        <v>6958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0202472508838829</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06216010026118819</v>
+        <v>0.0680841725471759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3366,19 +3366,19 @@
         <v>3773</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1535</v>
+        <v>1805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7199</v>
+        <v>7410</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03544466546801413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01442220943004231</v>
+        <v>0.016958759699486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06762547380797704</v>
+        <v>0.06960660708071327</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -3387,19 +3387,19 @@
         <v>5843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2884</v>
+        <v>2961</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11552</v>
+        <v>10821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02800120112771467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01382364731470556</v>
+        <v>0.01419006413222223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05536250941806602</v>
+        <v>0.05186192809840511</v>
       </c>
     </row>
     <row r="5">
@@ -3416,16 +3416,16 @@
         <v>100126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95843</v>
+        <v>95237</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>102195</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.979752749116117</v>
+        <v>0.9797527491161171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9378398997388119</v>
+        <v>0.9319158274528239</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3437,19 +3437,19 @@
         <v>102685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99259</v>
+        <v>99048</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104923</v>
+        <v>104653</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9645553345319858</v>
+        <v>0.9645553345319859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.932374526192023</v>
+        <v>0.9303933929192868</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855777905699575</v>
+        <v>0.983041240300514</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -3458,19 +3458,19 @@
         <v>202811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197102</v>
+        <v>197833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>205770</v>
+        <v>205693</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9719987988722854</v>
+        <v>0.9719987988722855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9446374905819344</v>
+        <v>0.9481380719015949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861763526852946</v>
+        <v>0.9858099358677777</v>
       </c>
     </row>
     <row r="6">
@@ -3562,19 +3562,19 @@
         <v>10528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5558</v>
+        <v>5552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18541</v>
+        <v>18142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06837462987676753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03609473460456751</v>
+        <v>0.03605623571497261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1204174583160698</v>
+        <v>0.1178291656893806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -3583,19 +3583,19 @@
         <v>7320</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4039</v>
+        <v>3825</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12179</v>
+        <v>12721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05216209826018203</v>
+        <v>0.05216209826018204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02878368592749599</v>
+        <v>0.02725498239487424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08678974485278258</v>
+        <v>0.09064957792405028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3604,19 +3604,19 @@
         <v>17848</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11451</v>
+        <v>11614</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26727</v>
+        <v>26427</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06064399330921003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03890871807392646</v>
+        <v>0.03946430057104418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09081530401946941</v>
+        <v>0.08979516939240854</v>
       </c>
     </row>
     <row r="8">
@@ -3633,19 +3633,19 @@
         <v>143442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135429</v>
+        <v>135828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148412</v>
+        <v>148418</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9316253701232324</v>
+        <v>0.9316253701232327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8795825416839301</v>
+        <v>0.8821708343106196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9639052653954324</v>
+        <v>0.9639437642850277</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>221</v>
@@ -3654,19 +3654,19 @@
         <v>133013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128154</v>
+        <v>127612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136294</v>
+        <v>136508</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9478379017398179</v>
+        <v>0.9478379017398181</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9132102551472173</v>
+        <v>0.9093504220759496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9712163140725043</v>
+        <v>0.9727450176051258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>397</v>
@@ -3675,19 +3675,19 @@
         <v>276455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>267576</v>
+        <v>267876</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282852</v>
+        <v>282689</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9393560066907901</v>
+        <v>0.9393560066907899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9091846959805305</v>
+        <v>0.9102048306075916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9610912819260734</v>
+        <v>0.9605356994289562</v>
       </c>
     </row>
     <row r="9">
@@ -3779,19 +3779,19 @@
         <v>18091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11316</v>
+        <v>11721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26503</v>
+        <v>25742</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1518908052115897</v>
+        <v>0.1518908052115896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09500585383207763</v>
+        <v>0.09841198187181148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2225209459106376</v>
+        <v>0.2161309834081308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3800,19 +3800,19 @@
         <v>11023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6597</v>
+        <v>6655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16244</v>
+        <v>16600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1295488629064889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07753092557487383</v>
+        <v>0.07821182356750014</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1909167135438114</v>
+        <v>0.1950979960325397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -3821,19 +3821,19 @@
         <v>29114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20954</v>
+        <v>21030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38982</v>
+        <v>39629</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.142580914777056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1026201203546765</v>
+        <v>0.1029925352037693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.190908005473956</v>
+        <v>0.1940810370665854</v>
       </c>
     </row>
     <row r="11">
@@ -3850,19 +3850,19 @@
         <v>101013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92601</v>
+        <v>93362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107788</v>
+        <v>107383</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8481091947884103</v>
+        <v>0.8481091947884102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7774790540893625</v>
+        <v>0.7838690165918696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9049941461679225</v>
+        <v>0.9015880181281886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -3871,19 +3871,19 @@
         <v>74063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>68842</v>
+        <v>68486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78489</v>
+        <v>78431</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8704511370935112</v>
+        <v>0.8704511370935111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8090832864561887</v>
+        <v>0.8049020039674604</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9224690744251264</v>
+        <v>0.9217881764324997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -3892,19 +3892,19 @@
         <v>175076</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165208</v>
+        <v>164561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>183236</v>
+        <v>183160</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8574190852229441</v>
+        <v>0.8574190852229442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8090919945260439</v>
+        <v>0.8059189629334146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8973798796453234</v>
+        <v>0.8970074647962307</v>
       </c>
     </row>
     <row r="12">
@@ -3996,19 +3996,19 @@
         <v>25685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17944</v>
+        <v>18655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34725</v>
+        <v>35124</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1292476539104375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09029267227327313</v>
+        <v>0.0938722587502511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1747321200383908</v>
+        <v>0.1767422911538004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4017,19 +4017,19 @@
         <v>16390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10957</v>
+        <v>11409</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22564</v>
+        <v>22817</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08272510659368688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05530404601577173</v>
+        <v>0.0575867296161605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1138900179963798</v>
+        <v>0.1151651150935805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -4038,19 +4038,19 @@
         <v>42075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32019</v>
+        <v>32879</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52580</v>
+        <v>52399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1060218444439382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08068087190551841</v>
+        <v>0.08284923037538487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.132491391748617</v>
+        <v>0.1320367326460765</v>
       </c>
     </row>
     <row r="14">
@@ -4067,19 +4067,19 @@
         <v>173045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164005</v>
+        <v>163606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>180786</v>
+        <v>180075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8707523460895624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8252678799616092</v>
+        <v>0.8232577088462003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9097073277267268</v>
+        <v>0.9061277412497489</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>295</v>
@@ -4088,19 +4088,19 @@
         <v>181735</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>175561</v>
+        <v>175308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187168</v>
+        <v>186716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9172748934063131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8861099820036203</v>
+        <v>0.8848348849064195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9446959539842285</v>
+        <v>0.9424132703838395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>526</v>
@@ -4109,19 +4109,19 @@
         <v>354780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344275</v>
+        <v>344456</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>364836</v>
+        <v>363976</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8939781555560619</v>
+        <v>0.8939781555560617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8675086082513833</v>
+        <v>0.8679632673539238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9193191280944815</v>
+        <v>0.9171507696246156</v>
       </c>
     </row>
     <row r="15">
@@ -4213,19 +4213,19 @@
         <v>56373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.098210893276025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -4234,19 +4234,19 @@
         <v>38506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -4255,19 +4255,19 @@
         <v>94879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="17">
@@ -4284,19 +4284,19 @@
         <v>517627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>502566</v>
+        <v>503304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>529863</v>
+        <v>530368</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9017891067239752</v>
+        <v>0.9017891067239751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8755505367002787</v>
+        <v>0.8768364306799385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9231063324602182</v>
+        <v>0.9239858554833573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>835</v>
@@ -4305,19 +4305,19 @@
         <v>491496</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>481250</v>
+        <v>481747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>499721</v>
+        <v>499581</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9273472055133037</v>
+        <v>0.9273472055133039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.908015736759068</v>
+        <v>0.9089537996942423</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9428671055116009</v>
+        <v>0.9426019648253705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1482</v>
@@ -4326,19 +4326,19 @@
         <v>1009123</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>991991</v>
+        <v>991832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1024098</v>
+        <v>1024229</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9140588746299478</v>
+        <v>0.9140588746299479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8985406228949615</v>
+        <v>0.898396699469216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9276233425415753</v>
+        <v>0.9277422557334278</v>
       </c>
     </row>
     <row r="18">
